--- a/medicine/Enfance/Esther_Randriamamonjy/Esther_Randriamamonjy.xlsx
+++ b/medicine/Enfance/Esther_Randriamamonjy/Esther_Randriamamonjy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Esther Randriamamonjy, de son vrai nom Esther Rasoloarimalala Randriamamonjy[2],[3], est une écrivaine malgache.
-Elle est connue dans le domaine de la littérature pour enfants à travers romans et contes; elle a aussi traduit des histoires pour la jeunesse écrits en russe, en français et en anglais. D'après l'Association des Editeurs de Madagascar (AEDIM), elle est l'auteure la plus lue par les enfants à Madagascar[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esther Randriamamonjy, de son vrai nom Esther Rasoloarimalala Randriamamonjy est une écrivaine malgache.
+Elle est connue dans le domaine de la littérature pour enfants à travers romans et contes; elle a aussi traduit des histoires pour la jeunesse écrits en russe, en français et en anglais. D'après l'Association des Editeurs de Madagascar (AEDIM), elle est l'auteure la plus lue par les enfants à Madagascar.
 Mère de famille et grand-mère, Esther Randriamamonjy est mariée à Frédéric Randriamamonjy (it), historien, diplomate ayant officié comme ambassadeur de Madagascar dans plusieurs pays, académicien et également auteur de quelques ouvrages.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Esther Randriamamonjy a suivi ses parcours d'études à Madagascar puis à l'étranger comme montrés dans la liste suivante[4]: 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Esther Randriamamonjy a suivi ses parcours d'études à Madagascar puis à l'étranger comme montrés dans la liste suivante: 
 Études primaires: écoles protestantes à Ambohimahasoa, Collège protestant Rabaut-Saint Etienne, devenu plus tard Collège Randzavola à Fianarantsoa,
 Études secondaires: Collège Protestant Paul Minault
 Études supérieures: bourse des Églises au Collège Lucie Berges à Strasbourg et à Dijon, formation d’éducateur au collège Carey Hall Birmingham</t>
@@ -546,34 +560,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Esther Randriamamonjy a publié plus d'une soixantaine d'ouvrages[1] et inventé ou traduites des centaines d'histoires[1].
-Ouvrages
-2001 : Tantaran'i Madagasikara isam-paritra (en français : Histoire de Madagascar à travers les régions), un ouvrage de 588 pages co-écrit avec Frédéric Ramamonjy, et édité par Trano Printy Fiangonana Loterana Malagasy (TPFLM)
-Romans
-1994 : Ho avy ny maraina publié par TPFLM à Antananarivo
-1994 : Trano rava
-2007 : Ilay dinan'ny fitia
-2017: Retour à l’amer, en collaboration avec Chantal Constant de Bordeaux
-Romans pour enfants
-1975 : Ny sodin' i solofo[1], publié par Edisiona Salohy à Antananarivo[5].
-Contes en malgache pour enfants
-I Trimobe sy i Fara vadiny
-Brochures
-Une collection de brochures « Amboara ny maraina » déstinée aux enfants de deux et trois ans sont écrites par ERR. « I Kinga sy i Bota » et « Manao baolina i Bota sy i Kinga » sont les deux premières brochures apparues[4]. 
-Traductions
-Ouvrages traduits en malgache
-1999 : Ireo fadiranovana I - Traduction en malgache des Misérables de Victor Hugo
-2000 : Ireo fadiranovana II - Traduction en malgache des Misérables de Victor Hugo
-2000 : Ireo fadiranovana III - Traduction en malgache des Misérables de Victor Hugo
-2002 : Vahiny - Traduction du roman L'étranger d'Albert Camus en deux volumes
-Contes traduites en malgache
-Ilay Osivavin'Ingahy Seguin - Traduction de La Chèvre de monsieur Seguin d'Alphonse Daudet
-Ouvrages traduits en langues étrangères
-Deux œuvres d'Esther Rasoarimalala Randriamamonjy ont fait l'objet de traduction en russe. Ce projet est mis en place avec la collaboration du Docteur Ludmilla Kartachova. La première œuvre qui fût traduite est le roman "Ho avy ny maraina" ou "Le matin viendra". Ensuite, "Trano rava" ou "La maison en ruine" fût traduite également en russe avec un grand tirage de 950 000 exemplaires en seulement une semaine[4].   
-Œuvres théâtrales publiées
-Tsarao ary aho! Œuvre théâtrale de 155 pages[6], inspirée de la vie et du règne de la reine Ranavalona Ire et mettant en scène une facette non connue de la personnalité de cette dernière[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esther Randriamamonjy a publié plus d'une soixantaine d'ouvrages et inventé ou traduites des centaines d'histoires.
+</t>
         </is>
       </c>
     </row>
@@ -598,12 +590,358 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2001 : Tantaran'i Madagasikara isam-paritra (en français : Histoire de Madagascar à travers les régions), un ouvrage de 588 pages co-écrit avec Frédéric Ramamonjy, et édité par Trano Printy Fiangonana Loterana Malagasy (TPFLM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1994 : Ho avy ny maraina publié par TPFLM à Antananarivo
+1994 : Trano rava
+2007 : Ilay dinan'ny fitia
+2017: Retour à l’amer, en collaboration avec Chantal Constant de Bordeaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1975 : Ny sodin' i solofo, publié par Edisiona Salohy à Antananarivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Contes en malgache pour enfants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>I Trimobe sy i Fara vadiny</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Brochures</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une collection de brochures « Amboara ny maraina » déstinée aux enfants de deux et trois ans sont écrites par ERR. « I Kinga sy i Bota » et « Manao baolina i Bota sy i Kinga » sont les deux premières brochures apparues. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en malgache</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1999 : Ireo fadiranovana I - Traduction en malgache des Misérables de Victor Hugo
+2000 : Ireo fadiranovana II - Traduction en malgache des Misérables de Victor Hugo
+2000 : Ireo fadiranovana III - Traduction en malgache des Misérables de Victor Hugo
+2002 : Vahiny - Traduction du roman L'étranger d'Albert Camus en deux volumes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Contes traduites en malgache</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ilay Osivavin'Ingahy Seguin - Traduction de La Chèvre de monsieur Seguin d'Alphonse Daudet</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en langues étrangères</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux œuvres d'Esther Rasoarimalala Randriamamonjy ont fait l'objet de traduction en russe. Ce projet est mis en place avec la collaboration du Docteur Ludmilla Kartachova. La première œuvre qui fût traduite est le roman "Ho avy ny maraina" ou "Le matin viendra". Ensuite, "Trano rava" ou "La maison en ruine" fût traduite également en russe avec un grand tirage de 950 000 exemplaires en seulement une semaine.   
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Œuvres théâtrales publiées</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tsarao ary aho! Œuvre théâtrale de 155 pages, inspirée de la vie et du règne de la reine Ranavalona Ire et mettant en scène une facette non connue de la personnalité de cette dernière.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Esther_Randriamamonjy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pour la promotion de la lecture, E. R. Randriamamonjy organise des activités de lecture dans divers endroits[4]: 
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pour la promotion de la lecture, E. R. Randriamamonjy organise des activités de lecture dans divers endroits: 
 lecture dans les lycées et collèges
 conte en plein air, dans les écoles, dans les églises et dans les lieux publics
 présentation de ses collections de livres</t>
